--- a/Peaks-dataset-article/redes-ensemble/Teste03/content/results/metrics_18_6.xlsx
+++ b/Peaks-dataset-article/redes-ensemble/Teste03/content/results/metrics_18_6.xlsx
@@ -518,1376 +518,1376 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_18_6_0</t>
+          <t>model_18_6_12</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9713889291538331</v>
+        <v>0.9946901421671636</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7686744325455188</v>
+        <v>0.7967317221086579</v>
       </c>
       <c r="D2" t="n">
-        <v>0.946417693982465</v>
+        <v>0.9470119330519262</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8011366909831281</v>
+        <v>0.9760718844581611</v>
       </c>
       <c r="F2" t="n">
-        <v>0.921161793050312</v>
+        <v>0.9738302205000161</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1913223624901856</v>
+        <v>0.03550704377782436</v>
       </c>
       <c r="H2" t="n">
-        <v>1.546875134724413</v>
+        <v>1.359255910223762</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3741354967199856</v>
+        <v>0.133984127585416</v>
       </c>
       <c r="J2" t="n">
-        <v>0.3034720309357526</v>
+        <v>0.0879346314471332</v>
       </c>
       <c r="K2" t="n">
-        <v>0.3388037638278691</v>
+        <v>0.1109595118043248</v>
       </c>
       <c r="L2" t="n">
-        <v>2.252077943473004</v>
+        <v>0.09272089360404166</v>
       </c>
       <c r="M2" t="n">
-        <v>0.4374041180535291</v>
+        <v>0.1884331281325669</v>
       </c>
       <c r="N2" t="n">
-        <v>1.00738350215385</v>
+        <v>1.003861714787518</v>
       </c>
       <c r="O2" t="n">
-        <v>0.4560253169104159</v>
+        <v>0.1964551165075194</v>
       </c>
       <c r="P2" t="n">
-        <v>237.3075910237522</v>
+        <v>120.6760483718119</v>
       </c>
       <c r="Q2" t="n">
-        <v>379.9160625333317</v>
+        <v>190.1519703892993</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_18_6_1</t>
+          <t>model_18_6_22</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9706395808438798</v>
+        <v>0.9946901421671636</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7681248354554028</v>
+        <v>0.7967317221086579</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9364551806407498</v>
+        <v>0.9470119330519262</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7614986083941722</v>
+        <v>0.9760718844581611</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9060305480665414</v>
+        <v>0.9738302205000161</v>
       </c>
       <c r="G3" t="n">
-        <v>0.196333258089275</v>
+        <v>0.03550704377782436</v>
       </c>
       <c r="H3" t="n">
-        <v>1.550550292996681</v>
+        <v>1.359255910223762</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4436981966990101</v>
+        <v>0.133984127585416</v>
       </c>
       <c r="J3" t="n">
-        <v>0.3639610647607354</v>
+        <v>0.0879346314471332</v>
       </c>
       <c r="K3" t="n">
-        <v>0.4038296307298727</v>
+        <v>0.1109595118043248</v>
       </c>
       <c r="L3" t="n">
-        <v>2.063423703045102</v>
+        <v>0.09272089360404166</v>
       </c>
       <c r="M3" t="n">
-        <v>0.4430950892181891</v>
+        <v>0.1884331281325669</v>
       </c>
       <c r="N3" t="n">
-        <v>1.00757688236287</v>
+        <v>1.003861714787518</v>
       </c>
       <c r="O3" t="n">
-        <v>0.4619585644994898</v>
+        <v>0.1964551165075194</v>
       </c>
       <c r="P3" t="n">
-        <v>237.2558835344904</v>
+        <v>120.6760483718119</v>
       </c>
       <c r="Q3" t="n">
-        <v>379.8643550440699</v>
+        <v>190.1519703892993</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_18_6_2</t>
+          <t>model_18_6_21</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9694394378327995</v>
+        <v>0.9946901421671636</v>
       </c>
       <c r="C4" t="n">
-        <v>0.767103241384946</v>
+        <v>0.7967317221086579</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9267816970592586</v>
+        <v>0.9470119330519262</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7205383629951938</v>
+        <v>0.9760718844581611</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8908993577534675</v>
+        <v>0.9738302205000161</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2043586199305194</v>
+        <v>0.03550704377782436</v>
       </c>
       <c r="H4" t="n">
-        <v>1.557381697249833</v>
+        <v>1.359255910223762</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5112427623171726</v>
+        <v>0.133984127585416</v>
       </c>
       <c r="J4" t="n">
-        <v>0.4264677630566999</v>
+        <v>0.0879346314471332</v>
       </c>
       <c r="K4" t="n">
-        <v>0.4688552626869362</v>
+        <v>0.1109595118043248</v>
       </c>
       <c r="L4" t="n">
-        <v>1.893677438486046</v>
+        <v>0.09272089360404166</v>
       </c>
       <c r="M4" t="n">
-        <v>0.4520604162393776</v>
+        <v>0.1884331281325669</v>
       </c>
       <c r="N4" t="n">
-        <v>1.00788659668831</v>
+        <v>1.003861714787518</v>
       </c>
       <c r="O4" t="n">
-        <v>0.4713055640527558</v>
+        <v>0.1964551165075194</v>
       </c>
       <c r="P4" t="n">
-        <v>237.1757577753431</v>
+        <v>120.6760483718119</v>
       </c>
       <c r="Q4" t="n">
-        <v>379.7842292849226</v>
+        <v>190.1519703892993</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_18_6_3</t>
+          <t>model_18_6_20</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9679366434307761</v>
+        <v>0.9946901421671636</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7657608371523102</v>
+        <v>0.7967317221086579</v>
       </c>
       <c r="D5" t="n">
-        <v>0.917506149900181</v>
+        <v>0.9470119330519262</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6794536600143746</v>
+        <v>0.9760718844581611</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8760693570962564</v>
+        <v>0.9738302205000161</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2144078130165817</v>
+        <v>0.03550704377782436</v>
       </c>
       <c r="H5" t="n">
-        <v>1.566358360534672</v>
+        <v>1.359255910223762</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5760087588119009</v>
+        <v>0.133984127585416</v>
       </c>
       <c r="J5" t="n">
-        <v>0.4891643877665077</v>
+        <v>0.0879346314471332</v>
       </c>
       <c r="K5" t="n">
-        <v>0.5325865452037917</v>
+        <v>0.1109595118043248</v>
       </c>
       <c r="L5" t="n">
-        <v>1.740937363636005</v>
+        <v>0.09272089360404166</v>
       </c>
       <c r="M5" t="n">
-        <v>0.4630419128076654</v>
+        <v>0.1884331281325669</v>
       </c>
       <c r="N5" t="n">
-        <v>1.008274414598509</v>
+        <v>1.003861714787518</v>
       </c>
       <c r="O5" t="n">
-        <v>0.4827545656647873</v>
+        <v>0.1964551165075194</v>
       </c>
       <c r="P5" t="n">
-        <v>237.0797508182816</v>
+        <v>120.6760483718119</v>
       </c>
       <c r="Q5" t="n">
-        <v>379.688222327861</v>
+        <v>190.1519703892993</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_18_6_4</t>
+          <t>model_18_6_19</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9662438458866066</v>
+        <v>0.9946901421671636</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7642128288927252</v>
+        <v>0.7967317221086579</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9086987368212954</v>
+        <v>0.9470119330519262</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6391018818713115</v>
+        <v>0.9760718844581611</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8617497725592811</v>
+        <v>0.9738302205000161</v>
       </c>
       <c r="G6" t="n">
-        <v>0.225727557989059</v>
+        <v>0.03550704377782436</v>
       </c>
       <c r="H6" t="n">
-        <v>1.576709898894439</v>
+        <v>1.359255910223762</v>
       </c>
       <c r="I6" t="n">
-        <v>0.6375060349091374</v>
+        <v>0.133984127585416</v>
       </c>
       <c r="J6" t="n">
-        <v>0.5507425447703489</v>
+        <v>0.0879346314471332</v>
       </c>
       <c r="K6" t="n">
-        <v>0.5941243366540043</v>
+        <v>0.1109595118043248</v>
       </c>
       <c r="L6" t="n">
-        <v>1.603506914929184</v>
+        <v>0.09272089360404166</v>
       </c>
       <c r="M6" t="n">
-        <v>0.4751079435129021</v>
+        <v>0.1884331281325669</v>
       </c>
       <c r="N6" t="n">
-        <v>1.00871126557765</v>
+        <v>1.003861714787518</v>
       </c>
       <c r="O6" t="n">
-        <v>0.4953342722772728</v>
+        <v>0.1964551165075194</v>
       </c>
       <c r="P6" t="n">
-        <v>236.9768530050556</v>
+        <v>120.6760483718119</v>
       </c>
       <c r="Q6" t="n">
-        <v>379.5853245146351</v>
+        <v>190.1519703892993</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_18_6_5</t>
+          <t>model_18_6_18</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9644462630416195</v>
+        <v>0.9946901421671636</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7625460467876997</v>
+        <v>0.7967317221086579</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9004006437513653</v>
+        <v>0.9470119330519262</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6000828567570586</v>
+        <v>0.9760718844581611</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8480806198823676</v>
+        <v>0.9738302205000161</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2377480027505955</v>
+        <v>0.03550704377782436</v>
       </c>
       <c r="H7" t="n">
-        <v>1.587855678505571</v>
+        <v>1.359255910223762</v>
       </c>
       <c r="I7" t="n">
-        <v>0.6954470121326813</v>
+        <v>0.133984127585416</v>
       </c>
       <c r="J7" t="n">
-        <v>0.6102868762767244</v>
+        <v>0.0879346314471332</v>
       </c>
       <c r="K7" t="n">
-        <v>0.6528669254882674</v>
+        <v>0.1109595118043248</v>
       </c>
       <c r="L7" t="n">
-        <v>1.479833494108853</v>
+        <v>0.09272089360404166</v>
       </c>
       <c r="M7" t="n">
-        <v>0.4875940963040832</v>
+        <v>0.1884331281325669</v>
       </c>
       <c r="N7" t="n">
-        <v>1.009175157924743</v>
+        <v>1.003861714787518</v>
       </c>
       <c r="O7" t="n">
-        <v>0.5083519864426739</v>
+        <v>0.1964551165075194</v>
       </c>
       <c r="P7" t="n">
-        <v>236.8730879564407</v>
+        <v>120.6760483718119</v>
       </c>
       <c r="Q7" t="n">
-        <v>379.4815594660201</v>
+        <v>190.1519703892993</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_18_6_6</t>
+          <t>model_18_6_17</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9626072178169727</v>
+        <v>0.9946901421671636</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7608256092923595</v>
+        <v>0.7967317221086579</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8926312947431272</v>
+        <v>0.9470119330519262</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5627972674413892</v>
+        <v>0.9760718844581611</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8351487682720133</v>
+        <v>0.9738302205000161</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2500457066358343</v>
+        <v>0.03550704377782436</v>
       </c>
       <c r="H8" t="n">
-        <v>1.599360251958796</v>
+        <v>1.359255910223762</v>
       </c>
       <c r="I8" t="n">
-        <v>0.7496960631055312</v>
+        <v>0.133984127585416</v>
       </c>
       <c r="J8" t="n">
-        <v>0.6671859270377807</v>
+        <v>0.0879346314471332</v>
       </c>
       <c r="K8" t="n">
-        <v>0.7084409950716559</v>
+        <v>0.1109595118043248</v>
       </c>
       <c r="L8" t="n">
-        <v>1.368550296614243</v>
+        <v>0.09272089360404166</v>
       </c>
       <c r="M8" t="n">
-        <v>0.5000457045469286</v>
+        <v>0.1884331281325669</v>
       </c>
       <c r="N8" t="n">
-        <v>1.009649750240781</v>
+        <v>1.003861714787518</v>
       </c>
       <c r="O8" t="n">
-        <v>0.5213336854267998</v>
+        <v>0.1964551165075194</v>
       </c>
       <c r="P8" t="n">
-        <v>236.7722231025746</v>
+        <v>120.6760483718119</v>
       </c>
       <c r="Q8" t="n">
-        <v>379.3806946121541</v>
+        <v>190.1519703892993</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_18_6_7</t>
+          <t>model_18_6_16</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9607735451842411</v>
+        <v>0.9946901421671636</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7590996230963327</v>
+        <v>0.7967317221086579</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8853948022854806</v>
+        <v>0.9470119330519262</v>
       </c>
       <c r="E9" t="n">
-        <v>0.5274989367536603</v>
+        <v>0.9760718844581611</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8230026555984222</v>
+        <v>0.9738302205000161</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2623074839741962</v>
+        <v>0.03550704377782436</v>
       </c>
       <c r="H9" t="n">
-        <v>1.610901929599064</v>
+        <v>1.359255910223762</v>
       </c>
       <c r="I9" t="n">
-        <v>0.8002244726007478</v>
+        <v>0.133984127585416</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7210523549646037</v>
+        <v>0.0879346314471332</v>
       </c>
       <c r="K9" t="n">
-        <v>0.7606383857646759</v>
+        <v>0.1109595118043248</v>
       </c>
       <c r="L9" t="n">
-        <v>1.268404266725854</v>
+        <v>0.09272089360404166</v>
       </c>
       <c r="M9" t="n">
-        <v>0.512159627434842</v>
+        <v>0.1884331281325669</v>
       </c>
       <c r="N9" t="n">
-        <v>1.010122956081486</v>
+        <v>1.003861714787518</v>
       </c>
       <c r="O9" t="n">
-        <v>0.533963323091329</v>
+        <v>0.1964551165075194</v>
       </c>
       <c r="P9" t="n">
-        <v>236.6764757207994</v>
+        <v>120.6760483718119</v>
       </c>
       <c r="Q9" t="n">
-        <v>379.2849472303789</v>
+        <v>190.1519703892993</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_18_6_8</t>
+          <t>model_18_6_15</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9589790527295055</v>
+        <v>0.9946901421671636</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7574028906962146</v>
+        <v>0.7967317221086579</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8786838762170903</v>
+        <v>0.9470119330519262</v>
       </c>
       <c r="E10" t="n">
-        <v>0.4943324558622518</v>
+        <v>0.9760718844581611</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8116620012330862</v>
+        <v>0.9738302205000161</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2743072632818914</v>
+        <v>0.03550704377782436</v>
       </c>
       <c r="H10" t="n">
-        <v>1.622247986971388</v>
+        <v>1.359255910223762</v>
       </c>
       <c r="I10" t="n">
-        <v>0.8470831437678056</v>
+        <v>0.133984127585416</v>
       </c>
       <c r="J10" t="n">
-        <v>0.7716655091199217</v>
+        <v>0.0879346314471332</v>
       </c>
       <c r="K10" t="n">
-        <v>0.8093743544264039</v>
+        <v>0.1109595118043248</v>
       </c>
       <c r="L10" t="n">
-        <v>1.178288300922995</v>
+        <v>0.09272089360404166</v>
       </c>
       <c r="M10" t="n">
-        <v>0.5237435090594359</v>
+        <v>0.1884331281325669</v>
       </c>
       <c r="N10" t="n">
-        <v>1.010586050908515</v>
+        <v>1.003861714787518</v>
       </c>
       <c r="O10" t="n">
-        <v>0.5460403545386224</v>
+        <v>0.1964551165075194</v>
       </c>
       <c r="P10" t="n">
-        <v>236.5870128041061</v>
+        <v>120.6760483718119</v>
       </c>
       <c r="Q10" t="n">
-        <v>379.1954843136856</v>
+        <v>190.1519703892993</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_18_6_9</t>
+          <t>model_18_6_14</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9572474349256194</v>
+        <v>0.9946901421671636</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7557600909803724</v>
+        <v>0.7967317221086579</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8724830302462789</v>
+        <v>0.9470119330519262</v>
       </c>
       <c r="E11" t="n">
-        <v>0.4633564232999797</v>
+        <v>0.9760718844581611</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8011246675322373</v>
+        <v>0.9738302205000161</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2858865995098444</v>
+        <v>0.03550704377782436</v>
       </c>
       <c r="H11" t="n">
-        <v>1.633233396235621</v>
+        <v>1.359255910223762</v>
       </c>
       <c r="I11" t="n">
-        <v>0.8903802087842759</v>
+        <v>0.133984127585416</v>
       </c>
       <c r="J11" t="n">
-        <v>0.8189359661915536</v>
+        <v>0.0879346314471332</v>
       </c>
       <c r="K11" t="n">
-        <v>0.8546580874879148</v>
+        <v>0.1109595118043248</v>
       </c>
       <c r="L11" t="n">
-        <v>1.097187773681821</v>
+        <v>0.09272089360404166</v>
       </c>
       <c r="M11" t="n">
-        <v>0.5346836443261047</v>
+        <v>0.1884331281325669</v>
       </c>
       <c r="N11" t="n">
-        <v>1.011032920019195</v>
+        <v>1.003861714787518</v>
       </c>
       <c r="O11" t="n">
-        <v>0.5574462340127955</v>
+        <v>0.1964551165075194</v>
       </c>
       <c r="P11" t="n">
-        <v>236.5043201040032</v>
+        <v>120.6760483718119</v>
       </c>
       <c r="Q11" t="n">
-        <v>379.1127916135827</v>
+        <v>190.1519703892993</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_18_6_10</t>
+          <t>model_18_6_13</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9555947404047687</v>
+        <v>0.9946901421671636</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7541881526855163</v>
+        <v>0.7967317221086579</v>
       </c>
       <c r="D12" t="n">
-        <v>0.86677132825565</v>
+        <v>0.9470119330519262</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4345729997378837</v>
+        <v>0.9760718844581611</v>
       </c>
       <c r="F12" t="n">
-        <v>0.7913740145441934</v>
+        <v>0.9738302205000161</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2969381753807317</v>
+        <v>0.03550704377782436</v>
       </c>
       <c r="H12" t="n">
-        <v>1.643744954851435</v>
+        <v>1.359255910223762</v>
       </c>
       <c r="I12" t="n">
-        <v>0.9302618529352609</v>
+        <v>0.133984127585416</v>
       </c>
       <c r="J12" t="n">
-        <v>0.8628604289235511</v>
+        <v>0.0879346314471332</v>
       </c>
       <c r="K12" t="n">
-        <v>0.8965610944174984</v>
+        <v>0.1109595118043248</v>
       </c>
       <c r="L12" t="n">
-        <v>1.024203213190101</v>
+        <v>0.09272089360404166</v>
       </c>
       <c r="M12" t="n">
-        <v>0.5449203385640251</v>
+        <v>0.1884331281325669</v>
       </c>
       <c r="N12" t="n">
-        <v>1.011459421831028</v>
+        <v>1.003861714787518</v>
       </c>
       <c r="O12" t="n">
-        <v>0.5681187255173024</v>
+        <v>0.1964551165075194</v>
       </c>
       <c r="P12" t="n">
-        <v>236.4284626510995</v>
+        <v>120.6760483718119</v>
       </c>
       <c r="Q12" t="n">
-        <v>379.036934160679</v>
+        <v>190.1519703892993</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_18_6_11</t>
+          <t>model_18_6_23</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9540311035987566</v>
+        <v>0.9946901421671636</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7526979069772742</v>
+        <v>0.7967317221086579</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8615248191653414</v>
+        <v>0.9470119330519262</v>
       </c>
       <c r="E13" t="n">
-        <v>0.4079370566708619</v>
+        <v>0.9760718844581611</v>
       </c>
       <c r="F13" t="n">
-        <v>0.7823825352188043</v>
+        <v>0.9738302205000161</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3073942219024196</v>
+        <v>0.03550704377782436</v>
       </c>
       <c r="H13" t="n">
-        <v>1.6537102347644</v>
+        <v>1.359255910223762</v>
       </c>
       <c r="I13" t="n">
-        <v>0.9668953133150016</v>
+        <v>0.133984127585416</v>
       </c>
       <c r="J13" t="n">
-        <v>0.9035077649173033</v>
+        <v>0.0879346314471332</v>
       </c>
       <c r="K13" t="n">
-        <v>0.9352015855662428</v>
+        <v>0.1109595118043248</v>
       </c>
       <c r="L13" t="n">
-        <v>0.9585256531957543</v>
+        <v>0.09272089360404166</v>
       </c>
       <c r="M13" t="n">
-        <v>0.5544314402181928</v>
+        <v>0.1884331281325669</v>
       </c>
       <c r="N13" t="n">
-        <v>1.011862941006773</v>
+        <v>1.003861714787518</v>
       </c>
       <c r="O13" t="n">
-        <v>0.5780347344595828</v>
+        <v>0.1964551165075194</v>
       </c>
       <c r="P13" t="n">
-        <v>236.3592484894565</v>
+        <v>120.6760483718119</v>
       </c>
       <c r="Q13" t="n">
-        <v>378.967719999036</v>
+        <v>190.1519703892993</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_18_6_12</t>
+          <t>model_18_6_24</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9525622131263182</v>
+        <v>0.9946901421671636</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7512956556438224</v>
+        <v>0.7967317221086579</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8567165154216022</v>
+        <v>0.9470119330519262</v>
       </c>
       <c r="E14" t="n">
-        <v>0.383378422181634</v>
+        <v>0.9760718844581611</v>
       </c>
       <c r="F14" t="n">
-        <v>0.7741159000873337</v>
+        <v>0.9738302205000161</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3172166992552342</v>
+        <v>0.03550704377782436</v>
       </c>
       <c r="H14" t="n">
-        <v>1.663087095887966</v>
+        <v>1.359255910223762</v>
       </c>
       <c r="I14" t="n">
-        <v>1.00046902902921</v>
+        <v>0.133984127585416</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9409850588550328</v>
+        <v>0.0879346314471332</v>
       </c>
       <c r="K14" t="n">
-        <v>0.9707270903322418</v>
+        <v>0.1109595118043248</v>
       </c>
       <c r="L14" t="n">
-        <v>0.8994172712792862</v>
+        <v>0.09272089360404166</v>
       </c>
       <c r="M14" t="n">
-        <v>0.5632199386165534</v>
+        <v>0.1884331281325669</v>
       </c>
       <c r="N14" t="n">
-        <v>1.012242009515789</v>
+        <v>1.003861714787518</v>
       </c>
       <c r="O14" t="n">
-        <v>0.5871973774294612</v>
+        <v>0.1964551165075194</v>
       </c>
       <c r="P14" t="n">
-        <v>236.2963402895672</v>
+        <v>120.6760483718119</v>
       </c>
       <c r="Q14" t="n">
-        <v>378.9048117991467</v>
+        <v>190.1519703892993</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_18_6_13</t>
+          <t>model_18_6_10</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9511903288482644</v>
+        <v>0.9946901421671636</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7499842189307293</v>
+        <v>0.7967317221086579</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8523192377415071</v>
+        <v>0.9470119330519262</v>
       </c>
       <c r="E15" t="n">
-        <v>0.3607995448450996</v>
+        <v>0.9760718844581611</v>
       </c>
       <c r="F15" t="n">
-        <v>0.7665346977035464</v>
+        <v>0.9738302205000161</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3263904957395264</v>
+        <v>0.03550704377782436</v>
       </c>
       <c r="H15" t="n">
-        <v>1.67185667922703</v>
+        <v>1.359255910223762</v>
       </c>
       <c r="I15" t="n">
-        <v>1.031172777921982</v>
+        <v>0.133984127585416</v>
       </c>
       <c r="J15" t="n">
-        <v>0.975441177459526</v>
+        <v>0.0879346314471332</v>
       </c>
       <c r="K15" t="n">
-        <v>1.003306977690754</v>
+        <v>0.1109595118043248</v>
       </c>
       <c r="L15" t="n">
-        <v>0.8462206910761668</v>
+        <v>0.09272089360404166</v>
       </c>
       <c r="M15" t="n">
-        <v>0.5713059563312169</v>
+        <v>0.1884331281325669</v>
       </c>
       <c r="N15" t="n">
-        <v>1.01259604416819</v>
+        <v>1.003861714787518</v>
       </c>
       <c r="O15" t="n">
-        <v>0.5956276336586023</v>
+        <v>0.1964551165075194</v>
       </c>
       <c r="P15" t="n">
-        <v>236.2393215495224</v>
+        <v>120.6760483718119</v>
       </c>
       <c r="Q15" t="n">
-        <v>378.8477930591019</v>
+        <v>190.1519703892993</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_18_6_14</t>
+          <t>model_18_6_9</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9499152282315565</v>
+        <v>0.9946901421671636</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7487640637509139</v>
+        <v>0.7967317221086579</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8483045665113313</v>
+        <v>0.9470119330519262</v>
       </c>
       <c r="E16" t="n">
-        <v>0.3400958852901214</v>
+        <v>0.9760718844581611</v>
       </c>
       <c r="F16" t="n">
-        <v>0.7595972510983092</v>
+        <v>0.9738302205000161</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3349170994347503</v>
+        <v>0.03550704377782436</v>
       </c>
       <c r="H16" t="n">
-        <v>1.680015862532754</v>
+        <v>1.359255910223762</v>
       </c>
       <c r="I16" t="n">
-        <v>1.059204998378819</v>
+        <v>0.133984127585416</v>
       </c>
       <c r="J16" t="n">
-        <v>1.007035651291894</v>
+        <v>0.0879346314471332</v>
       </c>
       <c r="K16" t="n">
-        <v>1.033120352603114</v>
+        <v>0.1109595118043248</v>
       </c>
       <c r="L16" t="n">
-        <v>0.798351655577774</v>
+        <v>0.09272089360404166</v>
       </c>
       <c r="M16" t="n">
-        <v>0.5787202255276295</v>
+        <v>0.1884331281325669</v>
       </c>
       <c r="N16" t="n">
-        <v>1.012925102391856</v>
+        <v>1.003861714787518</v>
       </c>
       <c r="O16" t="n">
-        <v>0.6033575436443591</v>
+        <v>0.1964551165075194</v>
       </c>
       <c r="P16" t="n">
-        <v>236.1877444843106</v>
+        <v>120.6760483718119</v>
       </c>
       <c r="Q16" t="n">
-        <v>378.7962159938901</v>
+        <v>190.1519703892993</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_18_6_15</t>
+          <t>model_18_6_8</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9487349721406066</v>
+        <v>0.9946901421671636</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7476335650075894</v>
+        <v>0.7967317221086579</v>
       </c>
       <c r="D17" t="n">
-        <v>0.844644895696413</v>
+        <v>0.9470119330519262</v>
       </c>
       <c r="E17" t="n">
-        <v>0.3211544391943805</v>
+        <v>0.9760718844581611</v>
       </c>
       <c r="F17" t="n">
-        <v>0.7532611102633184</v>
+        <v>0.9738302205000161</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3428094773495113</v>
+        <v>0.03550704377782436</v>
       </c>
       <c r="H17" t="n">
-        <v>1.687575512834833</v>
+        <v>1.359255910223762</v>
       </c>
       <c r="I17" t="n">
-        <v>1.084758448014283</v>
+        <v>0.133984127585416</v>
       </c>
       <c r="J17" t="n">
-        <v>1.0359409287106</v>
+        <v>0.0879346314471332</v>
       </c>
       <c r="K17" t="n">
-        <v>1.06034964213285</v>
+        <v>0.1109595118043248</v>
       </c>
       <c r="L17" t="n">
-        <v>0.7552626144477327</v>
+        <v>0.09272089360404166</v>
       </c>
       <c r="M17" t="n">
-        <v>0.5854993401785448</v>
+        <v>0.1884331281325669</v>
       </c>
       <c r="N17" t="n">
-        <v>1.013229684608876</v>
+        <v>1.003861714787518</v>
       </c>
       <c r="O17" t="n">
-        <v>0.6104252592406658</v>
+        <v>0.1964551165075194</v>
       </c>
       <c r="P17" t="n">
-        <v>236.1411608915269</v>
+        <v>120.6760483718119</v>
       </c>
       <c r="Q17" t="n">
-        <v>378.7496324011064</v>
+        <v>190.1519703892993</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_18_6_16</t>
+          <t>model_18_6_7</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9476463812329012</v>
+        <v>0.9946901421671636</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7465900472083606</v>
+        <v>0.7967317221086579</v>
       </c>
       <c r="D18" t="n">
-        <v>0.8413143573134112</v>
+        <v>0.9470119330519262</v>
       </c>
       <c r="E18" t="n">
-        <v>0.3038573601477004</v>
+        <v>0.9760718844581611</v>
       </c>
       <c r="F18" t="n">
-        <v>0.7474842719651273</v>
+        <v>0.9738302205000161</v>
       </c>
       <c r="G18" t="n">
-        <v>0.3500888897618379</v>
+        <v>0.03550704377782436</v>
       </c>
       <c r="H18" t="n">
-        <v>1.694553521163233</v>
+        <v>1.359255910223762</v>
       </c>
       <c r="I18" t="n">
-        <v>1.108013748595441</v>
+        <v>0.133984127585416</v>
       </c>
       <c r="J18" t="n">
-        <v>1.062336847261402</v>
+        <v>0.0879346314471332</v>
       </c>
       <c r="K18" t="n">
-        <v>1.085175353347986</v>
+        <v>0.1109595118043248</v>
       </c>
       <c r="L18" t="n">
-        <v>0.7164896815986126</v>
+        <v>0.09272089360404166</v>
       </c>
       <c r="M18" t="n">
-        <v>0.5916830991010626</v>
+        <v>0.1884331281325669</v>
       </c>
       <c r="N18" t="n">
-        <v>1.013510611294735</v>
+        <v>1.003861714787518</v>
       </c>
       <c r="O18" t="n">
-        <v>0.6168722735826608</v>
+        <v>0.1964551165075194</v>
       </c>
       <c r="P18" t="n">
-        <v>236.0991363719914</v>
+        <v>120.6760483718119</v>
       </c>
       <c r="Q18" t="n">
-        <v>378.7076078815708</v>
+        <v>190.1519703892993</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_18_6_17</t>
+          <t>model_18_6_6</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9466451317561686</v>
+        <v>0.9946901421671636</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7456297031178484</v>
+        <v>0.7967317221086579</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8382859280480909</v>
+        <v>0.9470119330519262</v>
       </c>
       <c r="E19" t="n">
-        <v>0.2880873946611233</v>
+        <v>0.9760718844581611</v>
       </c>
       <c r="F19" t="n">
-        <v>0.7422240416354181</v>
+        <v>0.9738302205000161</v>
       </c>
       <c r="G19" t="n">
-        <v>0.356784249623079</v>
+        <v>0.03550704377782436</v>
       </c>
       <c r="H19" t="n">
-        <v>1.700975346518467</v>
+        <v>1.359255910223762</v>
       </c>
       <c r="I19" t="n">
-        <v>1.129159588923611</v>
+        <v>0.133984127585416</v>
       </c>
       <c r="J19" t="n">
-        <v>1.086402339672534</v>
+        <v>0.0879346314471332</v>
       </c>
       <c r="K19" t="n">
-        <v>1.107780964298072</v>
+        <v>0.1109595118043248</v>
       </c>
       <c r="L19" t="n">
-        <v>0.6815938671450938</v>
+        <v>0.09272089360404166</v>
       </c>
       <c r="M19" t="n">
-        <v>0.597314196736591</v>
+        <v>0.1884331281325669</v>
       </c>
       <c r="N19" t="n">
-        <v>1.013768998256473</v>
+        <v>1.003861714787518</v>
       </c>
       <c r="O19" t="n">
-        <v>0.6227430987025128</v>
+        <v>0.1964551165075194</v>
       </c>
       <c r="P19" t="n">
-        <v>236.0612480453674</v>
+        <v>120.6760483718119</v>
       </c>
       <c r="Q19" t="n">
-        <v>378.6697195549469</v>
+        <v>190.1519703892993</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_18_6_18</t>
+          <t>model_18_6_5</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.945726737537779</v>
+        <v>0.9946901421671636</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7447482932969445</v>
+        <v>0.7967317221086579</v>
       </c>
       <c r="D20" t="n">
-        <v>0.8355357945645649</v>
+        <v>0.9470119330519262</v>
       </c>
       <c r="E20" t="n">
-        <v>0.2737326707661086</v>
+        <v>0.9760718844581611</v>
       </c>
       <c r="F20" t="n">
-        <v>0.7374411610954195</v>
+        <v>0.9738302205000161</v>
       </c>
       <c r="G20" t="n">
-        <v>0.3629255559902665</v>
+        <v>0.03550704377782436</v>
       </c>
       <c r="H20" t="n">
-        <v>1.70686933804937</v>
+        <v>1.359255910223762</v>
       </c>
       <c r="I20" t="n">
-        <v>1.148362244303328</v>
+        <v>0.133984127585416</v>
       </c>
       <c r="J20" t="n">
-        <v>1.108308126292893</v>
+        <v>0.0879346314471332</v>
       </c>
       <c r="K20" t="n">
-        <v>1.128335185298111</v>
+        <v>0.1109595118043248</v>
       </c>
       <c r="L20" t="n">
-        <v>0.6501917923643549</v>
+        <v>0.09272089360404166</v>
       </c>
       <c r="M20" t="n">
-        <v>0.6024330302948756</v>
+        <v>0.1884331281325669</v>
       </c>
       <c r="N20" t="n">
-        <v>1.014006003216057</v>
+        <v>1.003861714787518</v>
       </c>
       <c r="O20" t="n">
-        <v>0.6280798516028199</v>
+        <v>0.1964551165075194</v>
       </c>
       <c r="P20" t="n">
-        <v>236.0271150913313</v>
+        <v>120.6760483718119</v>
       </c>
       <c r="Q20" t="n">
-        <v>378.6355866009108</v>
+        <v>190.1519703892993</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_18_6_19</t>
+          <t>model_18_6_4</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9448860969714903</v>
+        <v>0.9946901421671636</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7439411890744398</v>
+        <v>0.7967317221086579</v>
       </c>
       <c r="D21" t="n">
-        <v>0.8330405055475473</v>
+        <v>0.9470119330519262</v>
       </c>
       <c r="E21" t="n">
-        <v>0.2606806673788712</v>
+        <v>0.9760718844581611</v>
       </c>
       <c r="F21" t="n">
-        <v>0.7330966369409313</v>
+        <v>0.9738302205000161</v>
       </c>
       <c r="G21" t="n">
-        <v>0.368546923327833</v>
+        <v>0.03550704377782436</v>
       </c>
       <c r="H21" t="n">
-        <v>1.712266447701632</v>
+        <v>1.359255910223762</v>
       </c>
       <c r="I21" t="n">
-        <v>1.165785462250243</v>
+        <v>0.133984127585416</v>
       </c>
       <c r="J21" t="n">
-        <v>1.12822591804285</v>
+        <v>0.0879346314471332</v>
       </c>
       <c r="K21" t="n">
-        <v>1.147005588805905</v>
+        <v>0.1109595118043248</v>
       </c>
       <c r="L21" t="n">
-        <v>0.6219252546717489</v>
+        <v>0.09272089360404166</v>
       </c>
       <c r="M21" t="n">
-        <v>0.6070806563611074</v>
+        <v>0.1884331281325669</v>
       </c>
       <c r="N21" t="n">
-        <v>1.014222942717035</v>
+        <v>1.003861714787518</v>
       </c>
       <c r="O21" t="n">
-        <v>0.6329253367326033</v>
+        <v>0.1964551165075194</v>
       </c>
       <c r="P21" t="n">
-        <v>235.9963744788544</v>
+        <v>120.6760483718119</v>
       </c>
       <c r="Q21" t="n">
-        <v>378.6048459884339</v>
+        <v>190.1519703892993</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_18_6_20</t>
+          <t>model_18_6_3</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.944118177394462</v>
+        <v>0.9946901421671636</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7432035852791545</v>
+        <v>0.7967317221086579</v>
       </c>
       <c r="D22" t="n">
-        <v>0.8307785289406149</v>
+        <v>0.9470119330519262</v>
       </c>
       <c r="E22" t="n">
-        <v>0.248827773778087</v>
+        <v>0.9760718844581611</v>
       </c>
       <c r="F22" t="n">
-        <v>0.7291545097792416</v>
+        <v>0.9738302205000161</v>
       </c>
       <c r="G22" t="n">
-        <v>0.3736820050753659</v>
+        <v>0.03550704377782436</v>
       </c>
       <c r="H22" t="n">
-        <v>1.717198807677058</v>
+        <v>1.359255910223762</v>
       </c>
       <c r="I22" t="n">
-        <v>1.181579589160845</v>
+        <v>0.133984127585416</v>
       </c>
       <c r="J22" t="n">
-        <v>1.146313828332979</v>
+        <v>0.0879346314471332</v>
       </c>
       <c r="K22" t="n">
-        <v>1.163946708746912</v>
+        <v>0.1109595118043248</v>
       </c>
       <c r="L22" t="n">
-        <v>0.5964882076279211</v>
+        <v>0.09272089360404166</v>
       </c>
       <c r="M22" t="n">
-        <v>0.6112953501175729</v>
+        <v>0.1884331281325669</v>
       </c>
       <c r="N22" t="n">
-        <v>1.014421115511106</v>
+        <v>1.003861714787518</v>
       </c>
       <c r="O22" t="n">
-        <v>0.6373194587279003</v>
+        <v>0.1964551165075194</v>
       </c>
       <c r="P22" t="n">
-        <v>235.9687001940952</v>
+        <v>120.6760483718119</v>
       </c>
       <c r="Q22" t="n">
-        <v>378.5771717036747</v>
+        <v>190.1519703892993</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_18_6_21</t>
+          <t>model_18_6_11</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9434178433151199</v>
+        <v>0.9946901421671636</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7425306285714658</v>
+        <v>0.7967317221086579</v>
       </c>
       <c r="D23" t="n">
-        <v>0.8287294177369651</v>
+        <v>0.9470119330519262</v>
       </c>
       <c r="E23" t="n">
-        <v>0.2380745181080702</v>
+        <v>0.9760718844581611</v>
       </c>
       <c r="F23" t="n">
-        <v>0.7255805652071596</v>
+        <v>0.9738302205000161</v>
       </c>
       <c r="G23" t="n">
-        <v>0.3783651422886683</v>
+        <v>0.03550704377782436</v>
       </c>
       <c r="H23" t="n">
-        <v>1.721698872280053</v>
+        <v>1.359255910223762</v>
       </c>
       <c r="I23" t="n">
-        <v>1.195887395132487</v>
+        <v>0.133984127585416</v>
       </c>
       <c r="J23" t="n">
-        <v>1.162723654527083</v>
+        <v>0.0879346314471332</v>
       </c>
       <c r="K23" t="n">
-        <v>1.179305580030048</v>
+        <v>0.1109595118043248</v>
       </c>
       <c r="L23" t="n">
-        <v>0.573593287524814</v>
+        <v>0.09272089360404166</v>
       </c>
       <c r="M23" t="n">
-        <v>0.6151139262678649</v>
+        <v>0.1884331281325669</v>
       </c>
       <c r="N23" t="n">
-        <v>1.014601846886421</v>
+        <v>1.003861714787518</v>
       </c>
       <c r="O23" t="n">
-        <v>0.6413005995704527</v>
+        <v>0.1964551165075194</v>
       </c>
       <c r="P23" t="n">
-        <v>235.9437911294701</v>
+        <v>120.6760483718119</v>
       </c>
       <c r="Q23" t="n">
-        <v>378.5522626390496</v>
+        <v>190.1519703892993</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_18_6_22</t>
+          <t>model_18_6_2</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9427800419365682</v>
+        <v>0.9946922661387035</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7419176065946016</v>
+        <v>0.7967290536115409</v>
       </c>
       <c r="D24" t="n">
-        <v>0.8268744628425722</v>
+        <v>0.9470197570195026</v>
       </c>
       <c r="E24" t="n">
-        <v>0.2283258309597526</v>
+        <v>0.976090612697987</v>
       </c>
       <c r="F24" t="n">
-        <v>0.7223427394002475</v>
+        <v>0.9738406903697318</v>
       </c>
       <c r="G24" t="n">
-        <v>0.3826301230438491</v>
+        <v>0.03549284077035672</v>
       </c>
       <c r="H24" t="n">
-        <v>1.725798153062051</v>
+        <v>1.359273754476271</v>
       </c>
       <c r="I24" t="n">
-        <v>1.208839515382401</v>
+        <v>0.1339643441222635</v>
       </c>
       <c r="J24" t="n">
-        <v>1.177600475708844</v>
+        <v>0.08786580609965161</v>
       </c>
       <c r="K24" t="n">
-        <v>1.193219995545623</v>
+        <v>0.1109151196980669</v>
       </c>
       <c r="L24" t="n">
-        <v>0.5529887119472897</v>
+        <v>0.0927367650203688</v>
       </c>
       <c r="M24" t="n">
-        <v>0.6185710331432027</v>
+        <v>0.1883954372333808</v>
       </c>
       <c r="N24" t="n">
-        <v>1.014766440790563</v>
+        <v>1.003860170080943</v>
       </c>
       <c r="O24" t="n">
-        <v>0.6449048826426714</v>
+        <v>0.196415821028724</v>
       </c>
       <c r="P24" t="n">
-        <v>235.9213729852061</v>
+        <v>120.6768485425585</v>
       </c>
       <c r="Q24" t="n">
-        <v>378.5298444947856</v>
+        <v>190.1527705600459</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_18_6_23</t>
+          <t>model_18_6_1</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9421999775852217</v>
+        <v>0.9946943736001851</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7413599103912534</v>
+        <v>0.7967264034723984</v>
       </c>
       <c r="D25" t="n">
-        <v>0.8251964558511172</v>
+        <v>0.9470273533205391</v>
       </c>
       <c r="E25" t="n">
-        <v>0.2194949182465538</v>
+        <v>0.9761093043017399</v>
       </c>
       <c r="F25" t="n">
-        <v>0.7194116034839495</v>
+        <v>0.9738510825572394</v>
       </c>
       <c r="G25" t="n">
-        <v>0.386509016032254</v>
+        <v>0.03547874816572581</v>
       </c>
       <c r="H25" t="n">
-        <v>1.729527470141796</v>
+        <v>1.359291475968919</v>
       </c>
       <c r="I25" t="n">
-        <v>1.220556106658674</v>
+        <v>0.1339451363302857</v>
       </c>
       <c r="J25" t="n">
-        <v>1.191076742544288</v>
+        <v>0.08779711538791128</v>
       </c>
       <c r="K25" t="n">
-        <v>1.205816424601481</v>
+        <v>0.1108710569633228</v>
       </c>
       <c r="L25" t="n">
-        <v>0.5344493464348141</v>
+        <v>0.09274595511118745</v>
       </c>
       <c r="M25" t="n">
-        <v>0.6216984928663202</v>
+        <v>0.1883580318588135</v>
       </c>
       <c r="N25" t="n">
-        <v>1.014916134816717</v>
+        <v>1.003858637381684</v>
       </c>
       <c r="O25" t="n">
-        <v>0.6481654848009362</v>
+        <v>0.1963768232299216</v>
       </c>
       <c r="P25" t="n">
-        <v>235.9012001676941</v>
+        <v>120.6776428099563</v>
       </c>
       <c r="Q25" t="n">
-        <v>378.5096716772736</v>
+        <v>190.1535648274437</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_18_6_24</t>
+          <t>model_18_6_0</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9416731250355228</v>
+        <v>0.9946986057898265</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7408531683365432</v>
+        <v>0.796721082654086</v>
       </c>
       <c r="D26" t="n">
-        <v>0.8236793263714968</v>
+        <v>0.9470433215634034</v>
       </c>
       <c r="E26" t="n">
-        <v>0.2115034234272535</v>
+        <v>0.9761465815483142</v>
       </c>
       <c r="F26" t="n">
-        <v>0.7167601790612157</v>
+        <v>0.973871962879807</v>
       </c>
       <c r="G26" t="n">
-        <v>0.3900320814580233</v>
+        <v>0.03545044749410569</v>
       </c>
       <c r="H26" t="n">
-        <v>1.732916056594975</v>
+        <v>1.359327056305475</v>
       </c>
       <c r="I26" t="n">
-        <v>1.231149379580906</v>
+        <v>0.1339047594829598</v>
       </c>
       <c r="J26" t="n">
-        <v>1.203272029724287</v>
+        <v>0.08766012336557097</v>
       </c>
       <c r="K26" t="n">
-        <v>1.217210805685016</v>
+        <v>0.1107825246775073</v>
       </c>
       <c r="L26" t="n">
-        <v>0.5177595315207476</v>
+        <v>0.09278359683065604</v>
       </c>
       <c r="M26" t="n">
-        <v>0.6245254850348569</v>
+        <v>0.1882828921971024</v>
       </c>
       <c r="N26" t="n">
-        <v>1.015052096765026</v>
+        <v>1.003855559425581</v>
       </c>
       <c r="O26" t="n">
-        <v>0.651112827878768</v>
+        <v>0.1962984847172509</v>
       </c>
       <c r="P26" t="n">
-        <v>235.8830525661857</v>
+        <v>120.6792388056734</v>
       </c>
       <c r="Q26" t="n">
-        <v>378.4915240757652</v>
+        <v>190.1551608231608</v>
       </c>
     </row>
   </sheetData>
